--- a/output/【河洛話注音】西江月．世事一場大夢.xlsx
+++ b/output/【河洛話注音】西江月．世事一場大夢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4346FB32-A6F6-4FF5-894C-BE879B3E3C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3F4B8-D563-43B3-900C-B920F8B49105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{40E1D30A-85FA-5C4B-A422-4285E123A1C8}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{40E1D30A-85FA-5C4B-A422-4285E123A1C8}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>

--- a/output/【河洛話注音】西江月．世事一場大夢.xlsx
+++ b/output/【河洛話注音】西江月．世事一場大夢.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3F4B8-D563-43B3-900C-B920F8B49105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3655398-9C9B-4BFE-A052-768B3EDD79FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{40E1D30A-85FA-5C4B-A422-4285E123A1C8}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{40E1D30A-85FA-5C4B-A422-4285E123A1C8}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="603">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,9 +1117,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;伽三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;場&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1141,9 +1138,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1195,9 +1189,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
   </si>
   <si>
@@ -1225,9 +1216,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆤ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1264,9 +1252,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄞˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;葉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄚㆴ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1363,9 +1348,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
   </si>
   <si>
@@ -1375,9 +1357,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sè&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1402,9 +1381,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;葉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i̍ap&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1459,13 +1435,7 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;作&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsòo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;度&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tōo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1496,9 +1466,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;作&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zòo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1526,9 +1493,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lái&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;葉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íap&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1578,9 +1542,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbíong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《西江月．世事一場大夢》【台羅改良式】
@@ -1617,9 +1578,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;se3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ci3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1656,9 +1614,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;葉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iap8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1753,9 +1708,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;biong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《西江月．世事一場大夢》【雙排注音】
@@ -1795,9 +1747,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rt&gt;se3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rt&gt;ci3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1834,9 +1783,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rt&gt;lai5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;葉&lt;/rb&gt;&lt;rt&gt;iap8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1933,7 +1879,67 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rt&gt;biong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+    <t>ci7</t>
+  </si>
+  <si>
+    <t>biong7</t>
+  </si>
+  <si>
+    <t>bong5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ci7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;biong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;事&lt;/rb&gt;&lt;rt&gt;ci7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rt&gt;biong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2971,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
         <v>293</v>
@@ -2980,7 +2986,7 @@
         <v>84</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3251,16 +3257,16 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -4006,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="C80" t="s">
         <v>90</v>
@@ -4015,7 +4021,7 @@
         <v>124</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -4101,16 +4107,16 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>15278</v>
+        <v>15331</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>582</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4118,7 +4124,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>15331</v>
+        <v>15278</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -4373,16 +4379,16 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4390,13 +4396,13 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4798,13 +4804,13 @@
         <v>80</v>
       </c>
       <c r="B45">
-        <v>7155</v>
+        <v>18920</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4815,16 +4821,16 @@
         <v>80</v>
       </c>
       <c r="B46">
-        <v>18920</v>
+        <v>7155</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4962,12 +4968,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="229.5">
       <c r="A1" s="1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4977,17 +4983,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5012,12 +5018,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5027,12 +5033,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5047,32 +5053,32 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5087,32 +5093,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -5127,37 +5133,37 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -5172,32 +5178,32 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -5217,32 +5223,32 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -5257,32 +5263,32 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -5297,37 +5303,37 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -5342,32 +5348,32 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -5404,12 +5410,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="229.5">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5419,17 +5425,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5454,12 +5460,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5469,12 +5475,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5489,32 +5495,32 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>497</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5529,32 +5535,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -5569,37 +5575,37 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -5614,32 +5620,32 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -5659,32 +5665,32 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -5699,32 +5705,32 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -5739,37 +5745,37 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -5784,32 +5790,32 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -5846,12 +5852,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="229.5">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5896,7 +5902,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -5931,32 +5937,32 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>459</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5981,12 +5987,12 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -5996,7 +6002,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6011,27 +6017,27 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>469</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -6061,7 +6067,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -6071,17 +6077,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6111,12 +6117,12 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -6156,17 +6162,17 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -6181,7 +6187,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -6196,12 +6202,12 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -6226,12 +6232,12 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -6246,12 +6252,12 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>487</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -6295,7 +6301,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6340,7 +6346,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -6375,32 +6381,32 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>451</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -6425,12 +6431,12 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -6440,7 +6446,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6455,7 +6461,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -6465,17 +6471,17 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>430</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -6505,7 +6511,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -6515,17 +6521,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6555,12 +6561,12 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -6600,17 +6606,17 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -6625,7 +6631,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -6640,12 +6646,12 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -6670,12 +6676,12 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -6690,12 +6696,12 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -6739,7 +6745,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6784,7 +6790,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -6819,32 +6825,32 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>421</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -6869,12 +6875,12 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -6884,7 +6890,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6899,7 +6905,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -6909,17 +6915,17 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>430</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -6949,7 +6955,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -6959,17 +6965,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6999,12 +7005,12 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -7044,17 +7050,17 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -7069,7 +7075,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -7084,12 +7090,12 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -7114,17 +7120,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -7134,12 +7140,12 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -7183,7 +7189,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7193,17 +7199,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7228,12 +7234,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -7243,12 +7249,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -7263,32 +7269,32 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>371</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -7303,32 +7309,32 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7343,37 +7349,37 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>384</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -7388,32 +7394,32 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -7433,32 +7439,32 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -7473,32 +7479,32 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -7513,37 +7519,37 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -7558,32 +7564,32 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>417</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -8154,7 +8160,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>335</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -8164,17 +8170,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -8199,12 +8205,12 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -8214,7 +8220,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8234,12 +8240,12 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>343</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -8249,7 +8255,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -8279,7 +8285,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -8289,17 +8295,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -8329,12 +8335,12 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -8374,17 +8380,17 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -8399,7 +8405,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -8414,12 +8420,12 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -8444,17 +8450,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -8464,12 +8470,12 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>361</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:1">
